--- a/ComplexTemplates.xlsx
+++ b/ComplexTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhulendamoraba/Desktop/Course/Project/DAFT/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A3CC93-5E5A-1640-96B6-18FE53BC1CC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680B13C-51AE-6948-8AC3-6324DD401A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3E68D53-3903-B148-913B-5C05E568C3B7}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Ususondele ekuhlangabezaneni nesabelomali sakho, ${Category} ${dlule} inani elibekiwe ngamarandi ${Amount1}.</t>
   </si>
   <si>
-    <t>weqe isabelomali sakho sokusetshenziswa ngamarandi ${Amount1} ezintweni ${za}${category1} n${Amount2} ezintweni ${za}${category2}.</t>
-  </si>
-  <si>
     <t>Wenze kahle, uyisebenzise kahle imali eku-akhawunti yakho, ungaphakathi kwesabelomali esibekiwe.</t>
   </si>
   <si>
@@ -93,27 +90,18 @@
     <t>I-akhawunti yakho inamarandi ${Amount}.</t>
   </si>
   <si>
-    <t>Ucishe wahlangabezana nesabelomali sakho sokusebenzisa imali kodwa ukusebenzisa imali ezintweni ${za}${category1} kudlule isabelomali ngamarandi ${Amount1}.</t>
-  </si>
-  <si>
     <t>Ukuhlangabezana nesabelomali sakho, nciphisa ukusetshenziswa kwemali ${nga}${category1}ngamarandi ${Amount1} bese wehlisa ukusetshenziswa ${kwa}${category2} ngamarandi ${Amount2}.</t>
   </si>
   <si>
     <t>Usengachitha amarandi ${Amount} ngaphambi kokuba weqe isabelomali sakho sokusebenzisa.</t>
   </si>
   <si>
-    <t>Kusele ${Amount} kuphela wamarandi kuze kube ufinyelela umgomo wakho wokonga</t>
-  </si>
-  <si>
     <t>wenze kahle, ulondoloze amanye amarandi ${Amount} kunalokho obehlelile ukuwonga.</t>
   </si>
   <si>
     <t>Ukhokhiswe imali ${Amount} wamarandi ngebhange lakho ngalesi sikhathi.</t>
   </si>
   <si>
-    <t>Izindleko zakho ${Amount1} eziphezulu ${subCategory1}, ${subCategory2}, ${subCategory3} ${na}${subCategory4}.</t>
-  </si>
-  <si>
     <t>unebhalansi yamarandi ${Amount}.</t>
   </si>
   <si>
@@ -127,6 +115,18 @@
   </si>
   <si>
     <t>Unganciphisa ukusebenzisa kwakho imali futhi wandise nemali oyongayo ngokunciphisa  ${subCategory1}, ${subCategory2}, ${subCategory3} ${na}${subCategory4} uma kungenzeka.</t>
+  </si>
+  <si>
+    <t>weqe isabelomali sakho sokusetshenziswa ngamarandi ${Amount1} ezintweni ${za1}${category1} n${Amount2} ezintweni ${za2}${category2}.</t>
+  </si>
+  <si>
+    <t>Umfishane ngamarandi ${Amount} uze ufinyelele enhlosweni yakho yokonga</t>
+  </si>
+  <si>
+    <t>Izindleko zakho ${most} eziphezulu ${subCategory1}, ${subCategory2}, ${subCategory3} ${na}${subCategory4}.</t>
+  </si>
+  <si>
+    <t>Ucishe wahlangabezana nesabelomali sakho sokusebenzisa imali kodwa ukusebenzisa imali ezintweni ${za}${Category} ${dlule} isabelomali ngamarandi ${Amount1}.</t>
   </si>
 </sst>
 </file>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB183E2-7625-5F4E-B9CA-F568CA6B2B71}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,73 +552,73 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="76" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="76" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ComplexTemplates.xlsx
+++ b/ComplexTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhulendamoraba/Desktop/Course/Project/DAFT/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680B13C-51AE-6948-8AC3-6324DD401A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595211F-63C4-0443-AB50-9189BA7AE7FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3E68D53-3903-B148-913B-5C05E568C3B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CURRENT-AMOUNT-OF-MONEY</t>
   </si>
@@ -63,70 +63,64 @@
     <t>CATEGORIES-WHERE-MOST-MONEY-SPENT</t>
   </si>
   <si>
-    <t>Njengamanje unamarandi ${Amount} kwi-akhawunti yakho yasebhange.</t>
-  </si>
-  <si>
-    <t>Ususondele ekuhlangabezaneni nesabelomali sakho, ${Category} ${dlule} inani elibekiwe ngamarandi ${Amount1}.</t>
-  </si>
-  <si>
     <t>Wenze kahle, uyisebenzise kahle imali eku-akhawunti yakho, ungaphakathi kwesabelomali esibekiwe.</t>
   </si>
   <si>
-    <t>ungaphansi kwesilinganiso sakho sokonga ngamarandi ${Amount}.</t>
-  </si>
-  <si>
-    <t>weqe umgomo wakho wokonga ngamarandi ${Amount}.</t>
-  </si>
-  <si>
     <t>Wonge imali ngokwanele njengoba ubuhlelile.</t>
   </si>
   <si>
-    <t>Ibhange likukhokhise amarandi ${Amount} ngalesi sikhathi.</t>
-  </si>
-  <si>
-    <t>izindleko zakho eziphakeme kakhulu ${subCategory1}, ${subCategory2}, ${subCategory3} ${na}${subCategory4}.</t>
-  </si>
-  <si>
-    <t>I-akhawunti yakho inamarandi ${Amount}.</t>
-  </si>
-  <si>
-    <t>Ukuhlangabezana nesabelomali sakho, nciphisa ukusetshenziswa kwemali ${nga}${category1}ngamarandi ${Amount1} bese wehlisa ukusetshenziswa ${kwa}${category2} ngamarandi ${Amount2}.</t>
-  </si>
-  <si>
-    <t>Usengachitha amarandi ${Amount} ngaphambi kokuba weqe isabelomali sakho sokusebenzisa.</t>
-  </si>
-  <si>
-    <t>wenze kahle, ulondoloze amanye amarandi ${Amount} kunalokho obehlelile ukuwonga.</t>
-  </si>
-  <si>
-    <t>Ukhokhiswe imali ${Amount} wamarandi ngebhange lakho ngalesi sikhathi.</t>
-  </si>
-  <si>
-    <t>unebhalansi yamarandi ${Amount}.</t>
-  </si>
-  <si>
-    <t>Usendleleni yokuhlangabezana nesabelomali sakho sokusebenzisa imali uma ungasebenzisa imali engaphansi kwamarandi ${Amount}.</t>
-  </si>
-  <si>
-    <t>Ukuze ufinyelele umgomo wakho wokonga, udinga ukonga amanye amarandi ${Amount} ngaphezulu.</t>
-  </si>
-  <si>
-    <t>Ngenxa yesiyalo sakho sokonga unamarandi ${Amount} ongawasebenzisa ngendlela othanda ngayo.</t>
-  </si>
-  <si>
-    <t>Unganciphisa ukusebenzisa kwakho imali futhi wandise nemali oyongayo ngokunciphisa  ${subCategory1}, ${subCategory2}, ${subCategory3} ${na}${subCategory4} uma kungenzeka.</t>
-  </si>
-  <si>
-    <t>weqe isabelomali sakho sokusetshenziswa ngamarandi ${Amount1} ezintweni ${za1}${category1} n${Amount2} ezintweni ${za2}${category2}.</t>
-  </si>
-  <si>
-    <t>Umfishane ngamarandi ${Amount} uze ufinyelele enhlosweni yakho yokonga</t>
-  </si>
-  <si>
-    <t>Izindleko zakho ${most} eziphezulu ${subCategory1}, ${subCategory2}, ${subCategory3} ${na}${subCategory4}.</t>
-  </si>
-  <si>
-    <t>Ucishe wahlangabezana nesabelomali sakho sokusebenzisa imali kodwa ukusebenzisa imali ezintweni ${za}${Category} ${dlule} isabelomali ngamarandi ${Amount1}.</t>
+    <t>Ibhange likukhokhise amarandi ${Amount:Amarandi} ngalesi sikhathi.</t>
+  </si>
+  <si>
+    <t>Ukhokhiswe imali ${Amount:Imali} wamarandi ngebhange lakho ngalesi sikhathi.</t>
+  </si>
+  <si>
+    <t>weqe umgomo wakho wokonga ngamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>wenze kahle, ulondoloze amanye amarandi ${Amount:Amarandi} kunalokho obehlelile ukuwonga.</t>
+  </si>
+  <si>
+    <t>Ngenxa yesiyalo sakho sokonga unamarandi ${Amount:Amarandi} ongawasebenzisa ngendlela othanda ngayo.</t>
+  </si>
+  <si>
+    <t>Ukuze ufinyelele umgomo wakho wokonga, udinga ukonga amanye amarandi ${Amount:Amarandi} ngaphezulu.</t>
+  </si>
+  <si>
+    <t>Umfishane ngamarandi ${Amount:Amarandi} uze ufinyelele enhlosweni yakho yokonga</t>
+  </si>
+  <si>
+    <t>ungaphansi kwesilinganiso sakho sokonga ngamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Usengachitha amarandi ${Amount:Amarandi} ngaphambi kokuba weqe isabelomali sakho sokusebenzisa.</t>
+  </si>
+  <si>
+    <t>Usendleleni yokuhlangabezana nesabelomali sakho sokusebenzisa imali uma ungasebenzisa imali engaphansi kwamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Njengamanje unamarandi ${Amount:Amarandi} kwi-akhawunti yakho yasebhange.</t>
+  </si>
+  <si>
+    <t>I-akhawunti yakho inamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>unebhalansi yamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Ususondele ekuhlangabezaneni nesabelomali sakho, ${Category1} ${dlule} inani elibekiwe ngamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Ucishe wahlangabezana nesabelomali sakho sokusebenzisa imali kodwa ukusebenzisa imali ezintweni ${za1}${Category1} ${dlule} isabelomali ngamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Unganciphisa ukusebenzisa kwakho imali futhi wandise nemali oyongayo ngokunciphisa  ${subCategory1}, ${subCategory2}, ${subCategory3} ${na1}${subCategory4} uma kungenzeka.</t>
+  </si>
+  <si>
+    <t>izindleko zakho eziphakeme kakhulu ${subCategory1}, ${subCategory2}, ${subCategory3} ${na1}${subCategory4}.</t>
+  </si>
+  <si>
+    <t>Ukuhlangabezana nesabelomali sakho, nciphisa ukusetshenziswa kwemali ${nga1}${Category1} ngamarandi ${Amount:Amarandi} bese wehlisa ukusetshenziswa ${kwa1}${Category2} ngamarandi ${Amount:Amarandi}.</t>
   </si>
 </sst>
 </file>
@@ -156,12 +150,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -185,6 +185,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB183E2-7625-5F4E-B9CA-F568CA6B2B71}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,82 +547,78 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="95" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="76" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="76" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ComplexTemplates.xlsx
+++ b/ComplexTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhulendamoraba/Desktop/Course/Project/DAFT/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595211F-63C4-0443-AB50-9189BA7AE7FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD917ECD-4602-5645-9ED3-9FB0EA577E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3E68D53-3903-B148-913B-5C05E568C3B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>CURRENT-AMOUNT-OF-MONEY</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Ukuhlangabezana nesabelomali sakho, nciphisa ukusetshenziswa kwemali ${nga1}${Category1} ngamarandi ${Amount:Amarandi} bese wehlisa ukusetshenziswa ${kwa1}${Category2} ngamarandi ${Amount:Amarandi}.</t>
+  </si>
+  <si>
+    <t>weqe isabelomali sakho sokusetshenziswa ngamarandi ${Amount:Amarandi} ezintweni ${za1}${category1} ${na1}${Amount:Amarandi} ezintweni ${za2}${category2}.</t>
   </si>
 </sst>
 </file>
@@ -150,18 +153,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,7 +182,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB183E2-7625-5F4E-B9CA-F568CA6B2B71}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +580,9 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>

--- a/ComplexTemplates.xlsx
+++ b/ComplexTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhulendamoraba/Desktop/Course/Project/DAFT/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD917ECD-4602-5645-9ED3-9FB0EA577E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B6F81-E2BB-AF47-BABC-9230B1E1DEC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3E68D53-3903-B148-913B-5C05E568C3B7}"/>
   </bookViews>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>CURRENT-AMOUNT-OF-MONEY</t>
   </si>
   <si>
-    <t>CLOSE-TO-BUDGET</t>
-  </si>
-  <si>
-    <t>OVER-BUDGET</t>
-  </si>
-  <si>
-    <t>NOT-OVER-BUDGET</t>
-  </si>
-  <si>
     <t>NOT-REACHED-SAVINGS-GOAL</t>
   </si>
   <si>
@@ -63,74 +54,189 @@
     <t>CATEGORIES-WHERE-MOST-MONEY-SPENT</t>
   </si>
   <si>
-    <t>Wenze kahle, uyisebenzise kahle imali eku-akhawunti yakho, ungaphakathi kwesabelomali esibekiwe.</t>
-  </si>
-  <si>
     <t>Wonge imali ngokwanele njengoba ubuhlelile.</t>
   </si>
   <si>
-    <t>Ibhange likukhokhise amarandi ${Amount:Amarandi} ngalesi sikhathi.</t>
-  </si>
-  <si>
-    <t>Ukhokhiswe imali ${Amount:Imali} wamarandi ngebhange lakho ngalesi sikhathi.</t>
-  </si>
-  <si>
-    <t>weqe umgomo wakho wokonga ngamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>wenze kahle, ulondoloze amanye amarandi ${Amount:Amarandi} kunalokho obehlelile ukuwonga.</t>
-  </si>
-  <si>
-    <t>Ngenxa yesiyalo sakho sokonga unamarandi ${Amount:Amarandi} ongawasebenzisa ngendlela othanda ngayo.</t>
-  </si>
-  <si>
-    <t>Ukuze ufinyelele umgomo wakho wokonga, udinga ukonga amanye amarandi ${Amount:Amarandi} ngaphezulu.</t>
-  </si>
-  <si>
-    <t>Umfishane ngamarandi ${Amount:Amarandi} uze ufinyelele enhlosweni yakho yokonga</t>
-  </si>
-  <si>
-    <t>ungaphansi kwesilinganiso sakho sokonga ngamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>Usengachitha amarandi ${Amount:Amarandi} ngaphambi kokuba weqe isabelomali sakho sokusebenzisa.</t>
-  </si>
-  <si>
-    <t>Usendleleni yokuhlangabezana nesabelomali sakho sokusebenzisa imali uma ungasebenzisa imali engaphansi kwamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>Njengamanje unamarandi ${Amount:Amarandi} kwi-akhawunti yakho yasebhange.</t>
-  </si>
-  <si>
-    <t>I-akhawunti yakho inamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>unebhalansi yamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>Ususondele ekuhlangabezaneni nesabelomali sakho, ${Category1} ${dlule} inani elibekiwe ngamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>Ucishe wahlangabezana nesabelomali sakho sokusebenzisa imali kodwa ukusebenzisa imali ezintweni ${za1}${Category1} ${dlule} isabelomali ngamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>Unganciphisa ukusebenzisa kwakho imali futhi wandise nemali oyongayo ngokunciphisa  ${subCategory1}, ${subCategory2}, ${subCategory3} ${na1}${subCategory4} uma kungenzeka.</t>
-  </si>
-  <si>
     <t>izindleko zakho eziphakeme kakhulu ${subCategory1}, ${subCategory2}, ${subCategory3} ${na1}${subCategory4}.</t>
   </si>
   <si>
-    <t>Ukuhlangabezana nesabelomali sakho, nciphisa ukusetshenziswa kwemali ${nga1}${Category1} ngamarandi ${Amount:Amarandi} bese wehlisa ukusetshenziswa ${kwa1}${Category2} ngamarandi ${Amount:Amarandi}.</t>
-  </si>
-  <si>
-    <t>weqe isabelomali sakho sokusetshenziswa ngamarandi ${Amount:Amarandi} ezintweni ${za1}${category1} ${na1}${Amount:Amarandi} ezintweni ${za2}${category2}.</t>
+    <t>Unamarandi ${Amount1:Amarandi} aseleyo ku-akhawunti yakho.</t>
+  </si>
+  <si>
+    <t>Njengamanje unamarandi ${Amount1:Amarandi} kwi-akhawunti yakho yasebhange.</t>
+  </si>
+  <si>
+    <t>Ibhange likukhokhise amarandi ${Amount1:Amarandi} ngalesi sikhathi.</t>
+  </si>
+  <si>
+    <t>Ukhokhiswe imali ${Amount1:Imali} wamarandi ngebhange lakho ngalesi sikhathi.</t>
+  </si>
+  <si>
+    <t>BudgetPeriod</t>
+  </si>
+  <si>
+    <t>BudgetPercentages</t>
+  </si>
+  <si>
+    <t>BudgetValues</t>
+  </si>
+  <si>
+    <t>NumberOfTransactions</t>
+  </si>
+  <si>
+    <t>Over-budget:Category</t>
+  </si>
+  <si>
+    <t>Over-budgets:Category</t>
+  </si>
+  <si>
+    <t>Not-over-budget:Category</t>
+  </si>
+  <si>
+    <t>Wenze kahle, uyisebenzise kahle imali yakho, ungaphakathi kwebahajethi owiyibekile.</t>
+  </si>
+  <si>
+    <t>Ungaphansi komgomo wakho wokonga ngamarandi ${Amount1:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Weqe umgomo wakho wokonga ngamarandi ${Amount1:Amarandi}.</t>
+  </si>
+  <si>
+    <t>ukuthengiselana ${Amount1:ukuthengiselana} kwenzeke ngalesi sikhathi.</t>
+  </si>
+  <si>
+    <t>Umfishane ngamarandi ${Amount1:Amarandi} ukuze ufinyelele umgomo wakho wokonga.</t>
+  </si>
+  <si>
+    <t>Wenze kahle, ulondoloze ngaphezu kwalokho obekuhleliwe ngamarandi ${Amount1:Amarandi}.</t>
+  </si>
+  <si>
+    <t>kube nokuthengiselana ${Amount1:ukuthengiselana} kwalesi sigaba esingezansi ku-akhawunti yakho yasebhange ngalesi sikhathi.</t>
+  </si>
+  <si>
+    <t>Ukuze ufinyelele komgomo wakho wokonga, udinga ukonga amanye amarandi ${Amount1:Amarandi} ngaphezulu.</t>
+  </si>
+  <si>
+    <t>Ngenxa yokuzibophezela kwakho ukuthi wonge imali, usudlule uhlelo lwakho lokonga ngamarandi ${Amount1:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Ibhalansi yakho yasebhange ingamarandi ${Amount1:Amarandi}.</t>
+  </si>
+  <si>
+    <t>CLOSE-TO-BUDGET : Landing</t>
+  </si>
+  <si>
+    <t>OVER-BUDGET : Landing</t>
+  </si>
+  <si>
+    <t>NOT-OVER-BUDGET : Landing</t>
+  </si>
+  <si>
+    <t>Usuzodlula ibhajethi yakho ${ya1}${Category1}, kodwa usengasebenzisa amarandi ${Amount1:Amarandi} ngaphambi kokuba lokho kwenzeke.</t>
+  </si>
+  <si>
+    <t>Usuzodlula ibhajethi yakho yezinto ${za1}${Category1}, osele namarandi ${Amount1:Amarandi} kuphela ongawasenbezisa.</t>
+  </si>
+  <si>
+    <t>Usengachitha amarandi ${Amount1:Amarandi} ezintweni ${Za1}${Category1} ${na}${Amount2:Amarandi} ezintweni ${Za2}${Category2} ngaphambi kokuba weqe ibhajethi yakho.</t>
+  </si>
+  <si>
+    <t>Usebenzise ngokweqile amarandi ${Amount1:Amarandi} ezintweni ${za1}${Category1} futhi weqile ngamarandi ${Amount2:Amarandi} ezintweni ${za2}${Category2}.</t>
+  </si>
+  <si>
+    <t>Izinto ezibizayo kakhulu ozithengile kule nyanga ${subCategory1}, ${subCategory2}, ${subCategory3} kanye ${na1}${subCategory4}.</t>
+  </si>
+  <si>
+    <t>Isifinyezo sokuthengiselana okwenzeke ku-akhawunti yakho phakathi kosuku ${Day1:Usuku} ${luka1}${Month1} kuya osukwini ${Day2:Usuku} ${luka2}${Month2}.</t>
+  </si>
+  <si>
+    <t>Ukuze ungeqi ibhajethi esikhathini esilandelayo, nciphisa ukusetshenziswa kwemali ezintweni ${za1}${Category1} ngamarandi ${Amount1:Amarandi} futhi wehlise ukusetshenziswa kwemali ezintweni ${za2}${Category2} ngamarandi ${Amount2:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Usungaphezu kwebhajethi owiyibekile, udlule ibhajethi yezinto ${za1}${Category1} ngamarandi ${Amount1:Amarandi} futhi weqe ibhajethi yezinto ${za2}${Category2} ngamarandi ${Amount2:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Uthathe isinqumo sokusebenzisa amaphesenti ${Amount1:Amaphesenti} webhajethi yakho ezintweni ${za1}${Category1}, amaphesenti ${Amount2:Amaphesenti} ezintweni ${za2}${Category2} bese wonga amaphesenti ${Amount3:Amaphesenti} aseleyo.</t>
+  </si>
+  <si>
+    <t>Lesi sigaba sokuhlukanisa silingana namarandi ${Amount1:Amarandi} angasetshenziswa ezintweni ${za1}${Category1}, amarandi ${Amount2:Amarandi} angasetshenziswa ezintweni ${za2}${Category2} bese wonga amarandi ${Amount3:Amarandi} aseleyo.</t>
+  </si>
+  <si>
+    <t>Isifinyezo sezinto ezenzeke ku-akhawunti yakho yasebhange phakathi kosuku ${Day1:Usuku} ${luka1}${Month1} kuze kube usuku ${Day2:Usuku} lwenyanga ${ka1}${Month2}.</t>
+  </si>
+  <si>
+    <t>Uhlukanisile ibhajethi yakho yaba amahafu amathathu, uzosebenzisa amaphesenti ${Amount1:Amaphesenti} ngezinto ${za1}${Category1}, amaphesenti ${Amount2:Amaphesenti} ngezinto ${za2}${Category2} bese wonga amaphesenti ${Amount3:Amaphesenti} aseleyo.</t>
+  </si>
+  <si>
+    <t>Ngakho-ke ungasebenzisa amarandi ${Amount1:Amaphesenti} ezintweni ${za1}${Category1}, amarandi ${Amount2:Amaphesenti} ezintweni ${za2}${Category2} bese wonga amarandi ${Amount3:Amaphesenti} aseleyo.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ungaphezu kwebhajeti oyibeke emikhakheni ${subCatNo1:imikhakha}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>engaphansi ngesamba semali ${Amount1:Imali}.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Udlule ibhajethi yakho emikhakeni ${subCatNo1:imikhakha}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>engaphansi ngesamba yamarandi ${Amount1:Amarandi}.</t>
+    </r>
+  </si>
+  <si>
+    <t>Uchithe ngokweqile emikhakheni emincane ${subCatNo1:imikhakha} ngamarandi ${Amount1:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Usungaphezu kwebhajethi oyibekile, udlule ibhajethi  ngokusetshenziswa ngowekile ${ka1}${Category1} ngamarandi ${Amount1:Amarandi} futhi usebenzise ngokweqile ${ka2}${Category2} ngamarandi ${Amount2:Amarandi}.</t>
+  </si>
+  <si>
+    <t>Usebenzise ngokweqile amarandi ${Amount1:Amarandi} ${ka1}${Category1} nangamarandi ${Amount2:Amarandi} ${ka1}${Category2}.</t>
+  </si>
+  <si>
+    <t>izindleko zakho ${za1}${Category1} bezingaphakathi kwebhajeti oyibekile</t>
+  </si>
+  <si>
+    <t>Imali oyisebenzisile ${ka1}${Category1} yayingaphakathi kwebhajeti oyibekile.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,13 +258,25 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -181,8 +299,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB183E2-7625-5F4E-B9CA-F568CA6B2B71}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,111 +642,190 @@
     <col min="5" max="6" width="64.83203125" customWidth="1"/>
     <col min="7" max="7" width="55.5" customWidth="1"/>
     <col min="8" max="9" width="64.5" customWidth="1"/>
+    <col min="10" max="10" width="56.1640625" customWidth="1"/>
+    <col min="11" max="11" width="64.83203125" customWidth="1"/>
+    <col min="12" max="12" width="61.83203125" customWidth="1"/>
+    <col min="13" max="13" width="47.6640625" customWidth="1"/>
+    <col min="14" max="14" width="54.1640625" customWidth="1"/>
+    <col min="15" max="15" width="57" customWidth="1"/>
+    <col min="16" max="16" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="114" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="76" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="95" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="76" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="76" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ComplexTemplates.xlsx
+++ b/ComplexTemplates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhulendamoraba/Desktop/Course/Project/DAFT/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B6F81-E2BB-AF47-BABC-9230B1E1DEC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0DF88-1881-314E-99AE-2D281661D99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3E68D53-3903-B148-913B-5C05E568C3B7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>CURRENT-AMOUNT-OF-MONEY</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Usuzodlula ibhajethi yakho yezinto ${za1}${Category1}, osele namarandi ${Amount1:Amarandi} kuphela ongawasenbezisa.</t>
-  </si>
-  <si>
-    <t>Usengachitha amarandi ${Amount1:Amarandi} ezintweni ${Za1}${Category1} ${na}${Amount2:Amarandi} ezintweni ${Za2}${Category2} ngaphambi kokuba weqe ibhajethi yakho.</t>
   </si>
   <si>
     <t>Usebenzise ngokweqile amarandi ${Amount1:Amarandi} ezintweni ${za1}${Category1} futhi weqile ngamarandi ${Amount2:Amarandi} ezintweni ${za2}${Category2}.</t>
@@ -630,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB183E2-7625-5F4E-B9CA-F568CA6B2B71}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -730,25 +727,25 @@
         <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="114" x14ac:dyDescent="0.2">
@@ -759,7 +756,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="2" t="s">
@@ -773,39 +770,37 @@
         <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" ht="76" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
@@ -822,7 +817,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
